--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T12:15:50+00:00</t>
+    <t>2022-08-10T11:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T11:55:04+00:00</t>
+    <t>2022-08-15T15:57:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T15:57:18+00:00</t>
+    <t>2022-08-22T12:50:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T12:50:52+00:00</t>
+    <t>2022-08-24T11:54:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T11:54:47+00:00</t>
+    <t>2022-08-24T12:54:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T12:54:24+00:00</t>
+    <t>2022-08-25T14:53:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T14:53:23+00:00</t>
+    <t>2022-08-26T08:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:02:23+00:00</t>
+    <t>2022-08-26T08:17:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:17:36+00:00</t>
+    <t>2022-09-08T11:37:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T11:37:37+00:00</t>
+    <t>2022-09-22T12:10:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:10:51+00:00</t>
+    <t>2022-09-22T12:32:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="314">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:32:38+00:00</t>
+    <t>2022-11-21T12:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -271,10 +271,6 @@
     <t>Need to make sure we encompass public health studies.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>StudySubject</t>
   </si>
   <si>
@@ -291,47 +287,51 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>ResearchSubject.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>ResearchSubject.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>ResearchSubject.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>ResearchSubject.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -382,10 +382,6 @@
   </si>
   <si>
     <t>ResearchSubject.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Version specific identifier</t>
@@ -1330,40 +1326,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.7890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.79296875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="24.40234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="176.109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="53.125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="33.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="175.1171875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
@@ -1586,16 +1582,16 @@
         <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>80</v>
@@ -1603,7 +1599,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1614,28 +1610,28 @@
         <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="H3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1685,13 +1681,13 @@
         <v>80</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>80</v>
@@ -1714,7 +1710,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1725,25 +1721,25 @@
         <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1794,19 +1790,19 @@
         <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>80</v>
@@ -1823,7 +1819,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1834,7 +1830,7 @@
         <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>80</v>
@@ -1846,7 +1842,7 @@
         <v>80</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>103</v>
@@ -1909,7 +1905,7 @@
         <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>80</v>
@@ -2054,28 +2050,28 @@
         <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2125,19 +2121,19 @@
         <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>80</v>
@@ -2154,7 +2150,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2165,28 +2161,28 @@
         <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2236,19 +2232,19 @@
         <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>80</v>
@@ -2265,7 +2261,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2276,28 +2272,28 @@
         <v>78</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G9" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2347,19 +2343,19 @@
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>80</v>
@@ -2376,7 +2372,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2390,25 +2386,25 @@
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2458,7 +2454,7 @@
         <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>78</v>
@@ -2470,7 +2466,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>80</v>
@@ -2487,7 +2483,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2507,19 +2503,19 @@
         <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2545,31 +2541,31 @@
         <v>80</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>78</v>
@@ -2581,7 +2577,7 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>80</v>
@@ -2598,7 +2594,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2618,19 +2614,19 @@
         <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2656,31 +2652,31 @@
         <v>80</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>78</v>
@@ -2692,7 +2688,7 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>80</v>
@@ -2709,7 +2705,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2720,28 +2716,28 @@
         <v>78</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2791,19 +2787,19 @@
         <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>80</v>
@@ -2820,7 +2816,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2831,7 +2827,7 @@
         <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>80</v>
@@ -2843,16 +2839,16 @@
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2878,43 +2874,43 @@
         <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>172</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>80</v>
@@ -2931,18 +2927,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>80</v>
@@ -2954,16 +2950,16 @@
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3013,28 +3009,28 @@
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>80</v>
@@ -3042,11 +3038,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3065,16 +3061,16 @@
         <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3124,7 +3120,7 @@
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3145,7 +3141,7 @@
         <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>80</v>
@@ -3153,7 +3149,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3182,7 +3178,7 @@
         <v>110</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>112</v>
@@ -3235,7 +3231,7 @@
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -3256,7 +3252,7 @@
         <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>80</v>
@@ -3264,7 +3260,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3281,7 +3277,7 @@
         <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>80</v>
@@ -3290,16 +3286,16 @@
         <v>109</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>112</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>80</v>
@@ -3348,7 +3344,7 @@
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -3369,7 +3365,7 @@
         <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>80</v>
@@ -3377,7 +3373,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3385,28 +3381,28 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3445,7 +3441,7 @@
         <v>80</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
@@ -3455,7 +3451,7 @@
         <v>115</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -3467,55 +3463,55 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>204</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="H20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J20" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3527,7 +3523,7 @@
         <v>80</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>80</v>
@@ -3566,7 +3562,7 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -3578,24 +3574,24 @@
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>204</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3606,7 +3602,7 @@
         <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>80</v>
@@ -3618,7 +3614,7 @@
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>103</v>
@@ -3681,7 +3677,7 @@
         <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>80</v>
@@ -3704,7 +3700,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3815,7 +3811,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3826,31 +3822,31 @@
         <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H23" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I23" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>80</v>
@@ -3875,52 +3871,52 @@
         <v>80</v>
       </c>
       <c r="W23" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="X23" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="X23" t="s" s="2">
+      <c r="Y23" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>80</v>
@@ -3928,7 +3924,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3939,31 +3935,31 @@
         <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G24" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>80</v>
@@ -3988,52 +3984,52 @@
         <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE24" t="s" s="2">
+      <c r="AF24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="AL24" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>80</v>
@@ -4041,7 +4037,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4049,34 +4045,34 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="H25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>80</v>
@@ -4089,64 +4085,64 @@
         <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="T25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE25" t="s" s="2">
+      <c r="AF25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -4154,7 +4150,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4162,31 +4158,31 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G26" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="H26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4200,64 +4196,64 @@
         <v>80</v>
       </c>
       <c r="S26" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="T26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE26" t="s" s="2">
+      <c r="AF26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -4265,7 +4261,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4276,25 +4272,25 @@
         <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J27" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4345,28 +4341,28 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
@@ -4374,7 +4370,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4385,28 +4381,28 @@
         <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J28" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4456,28 +4452,28 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
@@ -4485,7 +4481,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4493,28 +4489,28 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="H29" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I29" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4541,89 +4537,89 @@
         <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
+      <c r="AK29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AK29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>268</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G30" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="H30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4674,36 +4670,36 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>274</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4714,7 +4710,7 @@
         <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>80</v>
@@ -4726,7 +4722,7 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>103</v>
@@ -4789,7 +4785,7 @@
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>80</v>
@@ -4812,7 +4808,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4923,7 +4919,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4931,31 +4927,31 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="H33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J33" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5005,28 +5001,28 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH33" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH33" t="s" s="2">
+      <c r="AI33" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AI33" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5034,7 +5030,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5045,101 +5041,101 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G34" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P34" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="Q34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="Q34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE34" t="s" s="2">
+      <c r="AF34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -5147,7 +5143,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5155,28 +5151,28 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G35" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="H35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J35" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5227,22 +5223,22 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
@@ -5256,7 +5252,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5264,28 +5260,28 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G36" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="H36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J36" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5336,22 +5332,22 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
@@ -5365,7 +5361,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5376,7 +5372,7 @@
         <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>80</v>
@@ -5388,13 +5384,13 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5445,22 +5441,22 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
@@ -5474,7 +5470,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5485,7 +5481,7 @@
         <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>80</v>
@@ -5497,13 +5493,13 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5554,22 +5550,22 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
@@ -5583,7 +5579,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5591,14 +5587,14 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G39" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F39" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
       </c>
@@ -5606,13 +5602,13 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5663,22 +5659,22 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$39</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="325">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T12:36:42+00:00</t>
+    <t>2023-03-22T15:27:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -262,6 +265,10 @@
     <t/>
   </si>
   <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
     <t>Physical entity which is the primary unit of interest in the study</t>
   </si>
   <si>
@@ -650,6 +657,9 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>ResearchSubject.identifier:subjectIdentificationCode</t>
   </si>
   <si>
     <t>subjectIdentificationCode</t>
@@ -665,12 +675,21 @@
 &lt;/valueIdentifier&gt;</t>
   </si>
   <si>
+    <t>ResearchSubject.identifier:subjectIdentificationCode.id</t>
+  </si>
+  <si>
     <t>ResearchSubject.identifier.id</t>
   </si>
   <si>
+    <t>ResearchSubject.identifier:subjectIdentificationCode.extension</t>
+  </si>
+  <si>
     <t>ResearchSubject.identifier.extension</t>
   </si>
   <si>
+    <t>ResearchSubject.identifier:subjectIdentificationCode.use</t>
+  </si>
+  <si>
     <t>ResearchSubject.identifier.use</t>
   </si>
   <si>
@@ -699,6 +718,9 @@
   </si>
   <si>
     <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>ResearchSubject.identifier:subjectIdentificationCode.type</t>
   </si>
   <si>
     <t>ResearchSubject.identifier.type</t>
@@ -732,6 +754,9 @@
     <t>CX.5</t>
   </si>
   <si>
+    <t>ResearchSubject.identifier:subjectIdentificationCode.system</t>
+  </si>
+  <si>
     <t>ResearchSubject.identifier.system</t>
   </si>
   <si>
@@ -759,6 +784,9 @@
     <t>II.root or Role.id.root</t>
   </si>
   <si>
+    <t>ResearchSubject.identifier:subjectIdentificationCode.value</t>
+  </si>
+  <si>
     <t>ResearchSubject.identifier.value</t>
   </si>
   <si>
@@ -781,6 +809,9 @@
   </si>
   <si>
     <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>ResearchSubject.identifier:subjectIdentificationCode.period</t>
   </si>
   <si>
     <t>ResearchSubject.identifier.period</t>
@@ -803,6 +834,9 @@
   </si>
   <si>
     <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>ResearchSubject.identifier:subjectIdentificationCode.assigner</t>
   </si>
   <si>
     <t>ResearchSubject.identifier.assigner</t>
@@ -1317,7 +1351,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM39"/>
+  <dimension ref="A1:AN39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1326,45 +1360,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.40234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.76953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.79296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.40234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="176.109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="28.6484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="175.1171875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="175.1171875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1485,19 +1519,22 @@
       <c r="AM1" t="s" s="1">
         <v>76</v>
       </c>
+      <c r="AN1" t="s" s="1">
+        <v>77</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
         <v>78</v>
       </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>79</v>
       </c>
@@ -1505,75 +1542,75 @@
         <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>79</v>
@@ -1582,362 +1619,374 @@
         <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
+      </c>
+      <c r="AN2" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L3" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="M3" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN3" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" hidden="true">
+      <c r="A4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L3" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE3" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM3" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I4" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="AN4" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>80</v>
+        <v>108</v>
+      </c>
+      <c r="AN5" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>79</v>
       </c>
@@ -1945,75 +1994,75 @@
         <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
@@ -2022,442 +2071,454 @@
         <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>80</v>
+        <v>108</v>
+      </c>
+      <c r="AN6" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN8" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" hidden="true">
+      <c r="A9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" hidden="true">
+      <c r="A10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM9" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="H10" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2466,33 +2527,36 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>79</v>
       </c>
@@ -2500,75 +2564,75 @@
         <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2577,33 +2641,36 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>79</v>
       </c>
@@ -2611,75 +2678,75 @@
         <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2688,366 +2755,378 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>80</v>
+        <v>181</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>79</v>
       </c>
@@ -3055,75 +3134,75 @@
         <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3132,33 +3211,36 @@
         <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3166,75 +3248,75 @@
         <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>190</v>
+        <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3243,33 +3325,36 @@
         <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>79</v>
       </c>
@@ -3277,77 +3362,77 @@
         <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>112</v>
+        <v>195</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="P18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3356,105 +3441,108 @@
         <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G19" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="F19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="H19" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>197</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AC19" s="2"/>
+      <c r="AD19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AB19" s="2"/>
-      <c r="AC19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3463,109 +3551,112 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="F20" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="K20" t="s" s="2">
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3574,142 +3665,148 @@
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>205</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>80</v>
+        <v>108</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>79</v>
       </c>
@@ -3717,75 +3814,75 @@
         <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -3794,1030 +3891,1060 @@
         <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>80</v>
+        <v>108</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>164</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>216</v>
+        <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>80</v>
+        <v>223</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>219</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="N24" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="P24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="O24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>80</v>
+      <c r="AN24" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>229</v>
+        <v>132</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>235</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>80</v>
+        <v>244</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K26" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AK26" t="s" s="2">
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>80</v>
+        <v>253</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>246</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>249</v>
+        <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>80</v>
+        <v>261</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>253</v>
+        <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="F29" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="F30" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>270</v>
-      </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>268</v>
+        <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>272</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>273</v>
+        <v>81</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>284</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>80</v>
+        <v>108</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>79</v>
       </c>
@@ -4825,75 +4952,75 @@
         <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -4902,792 +5029,816 @@
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>80</v>
+        <v>108</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>277</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>281</v>
+        <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>78</v>
+        <v>292</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>282</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>100</v>
+        <v>293</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>80</v>
+        <v>295</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>277</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>289</v>
+        <v>81</v>
       </c>
       <c r="Q34" t="s" s="2">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>78</v>
+        <v>301</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>282</v>
+        <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>100</v>
+        <v>293</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>80</v>
+        <v>303</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>294</v>
+        <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>293</v>
+        <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>88</v>
+        <v>304</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>297</v>
+        <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>299</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>298</v>
+        <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>88</v>
+        <v>309</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K37" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>305</v>
-      </c>
       <c r="AK37" t="s" s="2">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K38" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>305</v>
-      </c>
       <c r="AK38" t="s" s="2">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>310</v>
+        <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>309</v>
+        <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>313</v>
+        <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM39">
+  <autoFilter ref="A1:AN39">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:27:03+00:00</t>
+    <t>2023-03-22T15:45:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:20+00:00</t>
+    <t>2023-03-22T15:45:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:58+00:00</t>
+    <t>2023-04-03T10:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T10:13:34+00:00</t>
+    <t>2023-04-03T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:34:04+00:00</t>
+    <t>2023-04-03T12:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:58:47+00:00</t>
+    <t>2023-04-03T13:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:27:14+00:00</t>
+    <t>2023-04-03T13:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:54:41+00:00</t>
+    <t>2023-04-04T16:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T16:41:07+00:00</t>
+    <t>2023-04-06T11:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>ProbandIn</t>
+    <t>Profile ProbandIn</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T11:42:20+00:00</t>
+    <t>2023-04-11T09:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:33:35+00:00</t>
+    <t>2023-04-17T09:23:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T09:23:06+00:00</t>
+    <t>2023-04-17T12:55:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$38</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="285">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T12:55:59+00:00</t>
+    <t>2023-06-14T11:38:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -130,126 +130,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: BRIDG 5.1 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t xml:space="preserve">Study Subject
@@ -1151,10 +1031,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1351,7 +1231,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN39"/>
+  <dimension ref="A1:AN38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1364,11 +1244,10 @@
     <col min="2" max="2" width="34.79296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="24.40234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="28.6484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1380,4465 +1259,4343 @@
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="53.125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="14.109375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="33.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="175.1171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="23.73046875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="16.3984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="N1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="AM1" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="L1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>76</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>77</v>
+      <c r="AN1" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH5" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AK5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="I6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="M6" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>158</v>
+        <v>41</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>172</v>
+        <v>41</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>183</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>184</v>
+        <v>71</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>187</v>
+        <v>74</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="AG16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AK16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="AG17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>119</v>
-      </c>
       <c r="AK17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="AC18" s="2"/>
       <c r="AD18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>81</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="D19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AC19" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AD19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>205</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>199</v>
+        <v>64</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>201</v>
+        <v>66</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>198</v>
+        <v>67</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>204</v>
+        <v>68</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>205</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH21" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AK21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="P22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>219</v>
+        <v>108</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>226</v>
+        <v>92</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>231</v>
+        <v>41</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>232</v>
+        <v>41</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>104</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>264</v>
+        <v>126</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>81</v>
+        <v>234</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>269</v>
+        <v>41</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>81</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>274</v>
+        <v>41</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>275</v>
+        <v>41</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>277</v>
+        <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>278</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>280</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>281</v>
+        <v>65</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>282</v>
+        <v>66</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>279</v>
+        <v>67</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>283</v>
+        <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>284</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH31" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AK31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>111</v>
+        <v>248</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>112</v>
+        <v>249</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>113</v>
+        <v>250</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>114</v>
+        <v>251</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>118</v>
+        <v>252</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>81</v>
+        <v>254</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>108</v>
+        <v>255</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q33" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="Q33" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="R33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q34" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>293</v>
+        <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>302</v>
+        <v>41</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>303</v>
+        <v>41</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>308</v>
+        <v>46</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>310</v>
+        <v>64</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>86</v>
+        <v>276</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>104</v>
+        <v>281</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" hidden="true">
-      <c r="A39" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN39">
+  <autoFilter ref="A1:AN38">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5848,7 +5605,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI38">
+  <conditionalFormatting sqref="A2:AI37">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T11:38:14+00:00</t>
+    <t>2023-06-26T12:20:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T12:20:42+00:00</t>
+    <t>2023-07-06T08:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T08:26:38+00:00</t>
+    <t>2023-07-06T08:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="286">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T08:27:50+00:00</t>
+    <t>2023-09-27T08:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -156,6 +156,10 @@
   </si>
   <si>
     <t>Need to make sure we encompass public health studies.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>StudySubject</t>
@@ -1379,16 +1383,16 @@
         <v>41</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>41</v>
@@ -1396,10 +1400,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1410,28 +1414,28 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I2" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1481,13 +1485,13 @@
         <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>41</v>
@@ -1510,10 +1514,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1524,25 +1528,25 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1593,19 +1597,19 @@
         <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>41</v>
@@ -1622,10 +1626,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1636,7 +1640,7 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>41</v>
@@ -1648,13 +1652,13 @@
         <v>41</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1705,13 +1709,13 @@
         <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>41</v>
@@ -1726,7 +1730,7 @@
         <v>41</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>41</v>
@@ -1734,14 +1738,14 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -1760,16 +1764,16 @@
         <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1807,19 +1811,19 @@
         <v>41</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
@@ -1831,7 +1835,7 @@
         <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>41</v>
@@ -1840,7 +1844,7 @@
         <v>41</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>41</v>
@@ -1848,10 +1852,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1862,7 +1866,7 @@
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>41</v>
@@ -1871,19 +1875,19 @@
         <v>41</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1933,19 +1937,19 @@
         <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>41</v>
@@ -1962,10 +1966,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1976,7 +1980,7 @@
         <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>41</v>
@@ -1985,19 +1989,19 @@
         <v>41</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2047,19 +2051,19 @@
         <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>41</v>
@@ -2076,10 +2080,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2090,28 +2094,28 @@
         <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2161,19 +2165,19 @@
         <v>41</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>41</v>
@@ -2190,10 +2194,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2207,25 +2211,25 @@
         <v>40</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2275,7 +2279,7 @@
         <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2287,7 +2291,7 @@
         <v>41</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>41</v>
@@ -2304,10 +2308,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2327,19 +2331,19 @@
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2365,13 +2369,13 @@
         <v>41</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>41</v>
@@ -2389,7 +2393,7 @@
         <v>41</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2401,7 +2405,7 @@
         <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>41</v>
@@ -2418,10 +2422,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2441,19 +2445,19 @@
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2479,13 +2483,13 @@
         <v>41</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>41</v>
@@ -2503,7 +2507,7 @@
         <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -2515,7 +2519,7 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>41</v>
@@ -2532,10 +2536,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2546,28 +2550,28 @@
         <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2617,19 +2621,19 @@
         <v>41</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>41</v>
@@ -2646,10 +2650,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2660,7 +2664,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>41</v>
@@ -2672,16 +2676,16 @@
         <v>41</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2707,13 +2711,13 @@
         <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>41</v>
@@ -2731,19 +2735,19 @@
         <v>41</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>41</v>
@@ -2760,21 +2764,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>41</v>
@@ -2786,16 +2790,16 @@
         <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2845,19 +2849,19 @@
         <v>41</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>41</v>
@@ -2866,7 +2870,7 @@
         <v>41</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>41</v>
@@ -2874,14 +2878,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -2900,16 +2904,16 @@
         <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2959,7 +2963,7 @@
         <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -2980,7 +2984,7 @@
         <v>41</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>41</v>
@@ -2988,14 +2992,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3014,16 +3018,16 @@
         <v>41</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3073,7 +3077,7 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3085,7 +3089,7 @@
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>41</v>
@@ -3094,7 +3098,7 @@
         <v>41</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>41</v>
@@ -3102,14 +3106,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3122,25 +3126,25 @@
         <v>41</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>41</v>
@@ -3189,7 +3193,7 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -3201,7 +3205,7 @@
         <v>41</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>41</v>
@@ -3210,7 +3214,7 @@
         <v>41</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>41</v>
@@ -3218,10 +3222,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3229,28 +3233,28 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3289,17 +3293,17 @@
         <v>41</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3311,58 +3315,58 @@
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3374,7 +3378,7 @@
         <v>41</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>41</v>
@@ -3413,7 +3417,7 @@
         <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -3425,27 +3429,27 @@
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3456,7 +3460,7 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>41</v>
@@ -3468,13 +3472,13 @@
         <v>41</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3525,13 +3529,13 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>41</v>
@@ -3546,7 +3550,7 @@
         <v>41</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>41</v>
@@ -3554,14 +3558,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3580,16 +3584,16 @@
         <v>41</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3627,19 +3631,19 @@
         <v>41</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -3651,7 +3655,7 @@
         <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>41</v>
@@ -3660,7 +3664,7 @@
         <v>41</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -3668,10 +3672,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3682,31 +3686,31 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>41</v>
@@ -3731,13 +3735,13 @@
         <v>41</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>41</v>
@@ -3755,28 +3759,28 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>41</v>
@@ -3784,10 +3788,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3798,31 +3802,31 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -3847,13 +3851,13 @@
         <v>41</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>41</v>
@@ -3871,28 +3875,28 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
@@ -3900,10 +3904,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3911,34 +3915,34 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -3951,7 +3955,7 @@
         <v>41</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>41</v>
@@ -3987,28 +3991,28 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
@@ -4016,10 +4020,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4027,31 +4031,31 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4065,7 +4069,7 @@
         <v>41</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>41</v>
@@ -4101,28 +4105,28 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>41</v>
@@ -4130,10 +4134,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4144,7 +4148,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
@@ -4153,16 +4157,16 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4213,28 +4217,28 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>41</v>
@@ -4242,10 +4246,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4256,7 +4260,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>41</v>
@@ -4265,19 +4269,19 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4327,28 +4331,28 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>41</v>
@@ -4356,10 +4360,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4367,28 +4371,28 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4415,13 +4419,13 @@
         <v>41</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>41</v>
@@ -4439,68 +4443,68 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4551,22 +4555,22 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>41</v>
@@ -4575,15 +4579,15 @@
         <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4594,7 +4598,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>41</v>
@@ -4606,13 +4610,13 @@
         <v>41</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4663,13 +4667,13 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>41</v>
@@ -4684,7 +4688,7 @@
         <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>41</v>
@@ -4692,14 +4696,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4718,16 +4722,16 @@
         <v>41</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4765,19 +4769,19 @@
         <v>41</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -4789,7 +4793,7 @@
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>41</v>
@@ -4798,7 +4802,7 @@
         <v>41</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>41</v>
@@ -4806,10 +4810,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4817,31 +4821,31 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4891,28 +4895,28 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>41</v>
@@ -4920,10 +4924,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4934,35 +4938,35 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>41</v>
@@ -5007,28 +5011,28 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -5036,10 +5040,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5047,28 +5051,28 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5119,22 +5123,22 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>41</v>
@@ -5148,10 +5152,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5159,28 +5163,28 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5231,22 +5235,22 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>41</v>
@@ -5260,10 +5264,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5274,7 +5278,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>41</v>
@@ -5286,13 +5290,13 @@
         <v>41</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5343,22 +5347,22 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>41</v>
@@ -5372,10 +5376,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5386,7 +5390,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>41</v>
@@ -5398,13 +5402,13 @@
         <v>41</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5455,22 +5459,22 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>41</v>
@@ -5484,10 +5488,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5495,13 +5499,13 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>41</v>
@@ -5510,13 +5514,13 @@
         <v>41</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5567,22 +5571,22 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-27T08:44:59+00:00</t>
+    <t>2023-11-02T12:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:02:41+00:00</t>
+    <t>2023-11-02T12:07:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:07:33+00:00</t>
+    <t>2023-11-02T12:07:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-probandin.xlsx
+++ b/StructureDefinition-probandin.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$39</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="326">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:07:02+00:00</t>
+    <t>2023-12-13T13:28:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -130,6 +130,126 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: BRIDG 5.1 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t xml:space="preserve">Study Subject
@@ -316,7 +436,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -336,7 +456,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -1235,7 +1355,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN38"/>
+  <dimension ref="A1:AN39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1248,10 +1368,11 @@
     <col min="2" max="2" width="34.79296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="24.40234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="28.6484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1263,4343 +1384,4465 @@
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="53.125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="14.109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="33.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="175.1171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="23.73046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="28.1484375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="I1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="K1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="L1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="AN1" t="s" s="2">
-        <v>41</v>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>77</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>63</v>
-      </c>
       <c r="AK9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>71</v>
+        <v>184</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="P18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AC18" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>166</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>166</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="D20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>68</v>
+        <v>199</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>69</v>
+        <v>205</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>41</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>176</v>
+        <v>113</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>184</v>
+        <v>109</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>93</v>
+        <v>227</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="P25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>217</v>
+        <v>105</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>127</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>235</v>
+        <v>81</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>236</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>41</v>
+        <v>270</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>239</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>241</v>
+        <v>81</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>41</v>
+        <v>220</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>41</v>
+        <v>275</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>41</v>
+        <v>276</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>41</v>
+        <v>278</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>245</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>41</v>
+        <v>281</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>65</v>
+        <v>257</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>66</v>
+        <v>282</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>67</v>
+        <v>283</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>68</v>
+        <v>280</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>41</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>249</v>
+        <v>112</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>250</v>
+        <v>113</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>251</v>
+        <v>114</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>252</v>
+        <v>115</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>253</v>
+        <v>119</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>254</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>256</v>
+        <v>109</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q33" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q34" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Q34" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="R34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>41</v>
+        <v>294</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>269</v>
+        <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>41</v>
+        <v>303</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>47</v>
+        <v>309</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>65</v>
+        <v>311</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>277</v>
+        <v>87</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>282</v>
+        <v>105</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN38">
+  <autoFilter ref="A1:AN39">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5609,7 +5852,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI37">
+  <conditionalFormatting sqref="A2:AI38">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
